--- a/data/134/DEUSTATIS/New orders (value and volume index) in the main construction industry - 1991.xlsx
+++ b/data/134/DEUSTATIS/New orders (value and volume index) in the main construction industry - 1991.xlsx
@@ -175,7 +175,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 10:58:51</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:35:40</t>
   </si>
 </sst>
 </file>
@@ -32204,10 +32204,10 @@
         <v>103.3</v>
       </c>
       <c r="DI79" t="n" s="10">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="DJ79" t="n" s="10">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="DK79" t="n" s="10">
         <v>101.1</v>
@@ -32231,7 +32231,7 @@
         <v>98.3</v>
       </c>
       <c r="DR79" t="n" s="10">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="DS79" t="n" s="10">
         <v>99.9</v>
@@ -32246,13 +32246,13 @@
         <v>91.4</v>
       </c>
       <c r="DW79" t="n" s="10">
-        <v>95.6</v>
+        <v>95.5</v>
       </c>
       <c r="DX79" t="n" s="10">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="DY79" t="n" s="10">
-        <v>99.2</v>
+        <v>99.1</v>
       </c>
       <c r="DZ79" t="n" s="10">
         <v>93.7</v>
@@ -32261,7 +32261,7 @@
         <v>97.0</v>
       </c>
       <c r="EB79" t="n" s="10">
-        <v>91.7</v>
+        <v>91.6</v>
       </c>
       <c r="EC79" t="n" s="10">
         <v>93.0</v>
@@ -32605,67 +32605,67 @@
         <v>129.4</v>
       </c>
       <c r="DH80" t="n" s="10">
-        <v>129.6</v>
+        <v>128.7</v>
       </c>
       <c r="DI80" t="n" s="10">
-        <v>128.7</v>
+        <v>128.1</v>
       </c>
       <c r="DJ80" t="n" s="10">
-        <v>131.9</v>
+        <v>135.6</v>
       </c>
       <c r="DK80" t="n" s="10">
-        <v>126.7</v>
+        <v>126.0</v>
       </c>
       <c r="DL80" t="n" s="10">
-        <v>125.6</v>
+        <v>125.2</v>
       </c>
       <c r="DM80" t="n" s="10">
-        <v>119.6</v>
+        <v>119.1</v>
       </c>
       <c r="DN80" t="n" s="10">
-        <v>126.2</v>
+        <v>125.8</v>
       </c>
       <c r="DO80" t="n" s="10">
+        <v>119.2</v>
+      </c>
+      <c r="DP80" t="n" s="10">
+        <v>125.2</v>
+      </c>
+      <c r="DQ80" t="n" s="10">
+        <v>123.0</v>
+      </c>
+      <c r="DR80" t="n" s="10">
+        <v>120.7</v>
+      </c>
+      <c r="DS80" t="n" s="10">
+        <v>125.5</v>
+      </c>
+      <c r="DT80" t="n" s="10">
+        <v>121.4</v>
+      </c>
+      <c r="DU80" t="n" s="10">
         <v>119.4</v>
       </c>
-      <c r="DP80" t="n" s="10">
-        <v>125.3</v>
-      </c>
-      <c r="DQ80" t="n" s="10">
-        <v>123.2</v>
-      </c>
-      <c r="DR80" t="n" s="10">
-        <v>120.8</v>
-      </c>
-      <c r="DS80" t="n" s="10">
-        <v>125.4</v>
-      </c>
-      <c r="DT80" t="n" s="10">
-        <v>121.6</v>
-      </c>
-      <c r="DU80" t="n" s="10">
-        <v>119.6</v>
-      </c>
       <c r="DV80" t="n" s="10">
-        <v>114.8</v>
+        <v>116.6</v>
       </c>
       <c r="DW80" t="n" s="10">
-        <v>120.0</v>
+        <v>119.7</v>
       </c>
       <c r="DX80" t="n" s="10">
-        <v>123.9</v>
+        <v>123.7</v>
       </c>
       <c r="DY80" t="n" s="10">
-        <v>124.7</v>
+        <v>124.5</v>
       </c>
       <c r="DZ80" t="n" s="10">
-        <v>118.0</v>
+        <v>117.8</v>
       </c>
       <c r="EA80" t="n" s="10">
-        <v>122.3</v>
+        <v>122.2</v>
       </c>
       <c r="EB80" t="n" s="10">
-        <v>115.5</v>
+        <v>115.4</v>
       </c>
       <c r="EC80" t="n" s="10">
         <v>117.3</v>
@@ -32674,7 +32674,7 @@
         <v>117.2</v>
       </c>
       <c r="EE80" t="n" s="10">
-        <v>112.2</v>
+        <v>112.1</v>
       </c>
     </row>
     <row r="81">
@@ -33012,25 +33012,25 @@
         <v>108.4</v>
       </c>
       <c r="DH81" t="n" s="10">
+        <v>110.5</v>
+      </c>
+      <c r="DI81" t="n" s="10">
+        <v>111.4</v>
+      </c>
+      <c r="DJ81" t="n" s="10">
+        <v>113.8</v>
+      </c>
+      <c r="DK81" t="n" s="10">
+        <v>109.2</v>
+      </c>
+      <c r="DL81" t="n" s="10">
         <v>110.6</v>
-      </c>
-      <c r="DI81" t="n" s="10">
-        <v>111.3</v>
-      </c>
-      <c r="DJ81" t="n" s="10">
-        <v>113.7</v>
-      </c>
-      <c r="DK81" t="n" s="10">
-        <v>109.3</v>
-      </c>
-      <c r="DL81" t="n" s="10">
-        <v>110.5</v>
       </c>
       <c r="DM81" t="n" s="10">
         <v>103.6</v>
       </c>
       <c r="DN81" t="n" s="10">
-        <v>109.0</v>
+        <v>108.9</v>
       </c>
       <c r="DO81" t="n" s="10">
         <v>101.9</v>
@@ -33039,7 +33039,7 @@
         <v>108.1</v>
       </c>
       <c r="DQ81" t="n" s="10">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="DR81" t="n" s="10">
         <v>103.3</v>
@@ -33063,16 +33063,16 @@
         <v>102.5</v>
       </c>
       <c r="DY81" t="n" s="10">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="DZ81" t="n" s="10">
         <v>98.3</v>
       </c>
       <c r="EA81" t="n" s="10">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="EB81" t="n" s="10">
-        <v>96.0</v>
+        <v>95.9</v>
       </c>
       <c r="EC81" t="n" s="10">
         <v>97.6</v>
@@ -33081,7 +33081,7 @@
         <v>95.2</v>
       </c>
       <c r="EE81" t="n" s="10">
-        <v>88.7</v>
+        <v>88.6</v>
       </c>
     </row>
     <row r="82">
@@ -33416,19 +33416,19 @@
         <v>134.6</v>
       </c>
       <c r="DH82" t="n" s="10">
-        <v>136.7</v>
+        <v>136.9</v>
       </c>
       <c r="DI82" t="n" s="10">
-        <v>138.2</v>
+        <v>138.0</v>
       </c>
       <c r="DJ82" t="n" s="10">
-        <v>140.9</v>
+        <v>143.5</v>
       </c>
       <c r="DK82" t="n" s="10">
-        <v>134.9</v>
+        <v>135.1</v>
       </c>
       <c r="DL82" t="n" s="10">
-        <v>137.2</v>
+        <v>137.1</v>
       </c>
       <c r="DM82" t="n" s="10">
         <v>128.1</v>
@@ -33437,55 +33437,55 @@
         <v>134.9</v>
       </c>
       <c r="DO82" t="n" s="10">
-        <v>126.5</v>
+        <v>125.9</v>
       </c>
       <c r="DP82" t="n" s="10">
-        <v>134.3</v>
+        <v>133.6</v>
       </c>
       <c r="DQ82" t="n" s="10">
-        <v>130.0</v>
+        <v>129.3</v>
       </c>
       <c r="DR82" t="n" s="10">
-        <v>128.4</v>
+        <v>127.5</v>
       </c>
       <c r="DS82" t="n" s="10">
-        <v>133.2</v>
+        <v>132.2</v>
       </c>
       <c r="DT82" t="n" s="10">
-        <v>132.2</v>
+        <v>131.5</v>
       </c>
       <c r="DU82" t="n" s="10">
-        <v>124.1</v>
+        <v>123.3</v>
       </c>
       <c r="DV82" t="n" s="10">
-        <v>118.4</v>
+        <v>125.9</v>
       </c>
       <c r="DW82" t="n" s="10">
-        <v>128.1</v>
+        <v>127.5</v>
       </c>
       <c r="DX82" t="n" s="10">
-        <v>128.2</v>
+        <v>127.6</v>
       </c>
       <c r="DY82" t="n" s="10">
-        <v>130.8</v>
+        <v>130.3</v>
       </c>
       <c r="DZ82" t="n" s="10">
-        <v>123.0</v>
+        <v>122.4</v>
       </c>
       <c r="EA82" t="n" s="10">
-        <v>126.8</v>
+        <v>125.9</v>
       </c>
       <c r="EB82" t="n" s="10">
-        <v>120.1</v>
+        <v>119.3</v>
       </c>
       <c r="EC82" t="n" s="10">
-        <v>122.5</v>
+        <v>121.6</v>
       </c>
       <c r="ED82" t="n" s="10">
-        <v>119.7</v>
+        <v>118.6</v>
       </c>
       <c r="EE82" t="n" s="10">
-        <v>111.2</v>
+        <v>110.2</v>
       </c>
     </row>
     <row r="83">
@@ -33823,16 +33823,16 @@
         <v>114.5</v>
       </c>
       <c r="DH83" t="n" s="10">
-        <v>108.9</v>
+        <v>108.8</v>
       </c>
       <c r="DI83" t="n" s="10">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="DJ83" t="n" s="10">
         <v>114.9</v>
       </c>
       <c r="DK83" t="n" s="10">
-        <v>108.8</v>
+        <v>108.7</v>
       </c>
       <c r="DL83" t="n" s="10">
         <v>102.9</v>
@@ -33847,16 +33847,16 @@
         <v>100.3</v>
       </c>
       <c r="DP83" t="n" s="10">
-        <v>96.4</v>
+        <v>96.5</v>
       </c>
       <c r="DQ83" t="n" s="10">
-        <v>96.4</v>
+        <v>96.3</v>
       </c>
       <c r="DR83" t="n" s="10">
         <v>95.2</v>
       </c>
       <c r="DS83" t="n" s="10">
-        <v>93.3</v>
+        <v>93.4</v>
       </c>
       <c r="DT83" t="n" s="10">
         <v>92.2</v>
@@ -33868,7 +33868,7 @@
         <v>88.2</v>
       </c>
       <c r="DW83" t="n" s="10">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="DX83" t="n" s="10">
         <v>88.9</v>
@@ -33877,13 +33877,13 @@
         <v>91.8</v>
       </c>
       <c r="DZ83" t="n" s="10">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="EA83" t="n" s="10">
-        <v>82.9</v>
+        <v>83.0</v>
       </c>
       <c r="EB83" t="n" s="10">
-        <v>83.6</v>
+        <v>83.5</v>
       </c>
       <c r="EC83" t="n" s="10">
         <v>81.0</v>
@@ -33892,7 +33892,7 @@
         <v>74.6</v>
       </c>
       <c r="EE83" t="n" s="10">
-        <v>73.5</v>
+        <v>73.4</v>
       </c>
     </row>
     <row r="84">
@@ -35038,25 +35038,25 @@
         <v>131.1</v>
       </c>
       <c r="DH86" t="n" s="10">
-        <v>139.7</v>
+        <v>139.6</v>
       </c>
       <c r="DI86" t="n" s="10">
         <v>142.7</v>
       </c>
       <c r="DJ86" t="n" s="10">
-        <v>145.7</v>
+        <v>145.8</v>
       </c>
       <c r="DK86" t="n" s="10">
-        <v>136.8</v>
+        <v>136.7</v>
       </c>
       <c r="DL86" t="n" s="10">
-        <v>144.7</v>
+        <v>144.8</v>
       </c>
       <c r="DM86" t="n" s="10">
         <v>132.6</v>
       </c>
       <c r="DN86" t="n" s="10">
-        <v>138.5</v>
+        <v>138.4</v>
       </c>
       <c r="DO86" t="n" s="10">
         <v>127.9</v>
@@ -35065,25 +35065,25 @@
         <v>144.0</v>
       </c>
       <c r="DQ86" t="n" s="10">
-        <v>137.0</v>
+        <v>136.9</v>
       </c>
       <c r="DR86" t="n" s="10">
         <v>134.8</v>
       </c>
       <c r="DS86" t="n" s="10">
-        <v>144.0</v>
+        <v>144.1</v>
       </c>
       <c r="DT86" t="n" s="10">
         <v>143.8</v>
       </c>
       <c r="DU86" t="n" s="10">
-        <v>131.8</v>
+        <v>131.7</v>
       </c>
       <c r="DV86" t="n" s="10">
         <v>138.2</v>
       </c>
       <c r="DW86" t="n" s="10">
-        <v>142.3</v>
+        <v>142.2</v>
       </c>
       <c r="DX86" t="n" s="10">
         <v>139.9</v>
@@ -35092,22 +35092,22 @@
         <v>142.1</v>
       </c>
       <c r="DZ86" t="n" s="10">
-        <v>135.9</v>
+        <v>135.8</v>
       </c>
       <c r="EA86" t="n" s="10">
         <v>142.0</v>
       </c>
       <c r="EB86" t="n" s="10">
-        <v>130.5</v>
+        <v>130.4</v>
       </c>
       <c r="EC86" t="n" s="10">
         <v>136.3</v>
       </c>
       <c r="ED86" t="n" s="10">
-        <v>136.6</v>
+        <v>136.7</v>
       </c>
       <c r="EE86" t="n" s="10">
-        <v>123.6</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="87">
@@ -35445,16 +35445,16 @@
         <v>100.9</v>
       </c>
       <c r="DH87" t="n" s="10">
-        <v>107.2</v>
+        <v>107.1</v>
       </c>
       <c r="DI87" t="n" s="10">
-        <v>113.7</v>
+        <v>113.8</v>
       </c>
       <c r="DJ87" t="n" s="10">
         <v>114.7</v>
       </c>
       <c r="DK87" t="n" s="10">
-        <v>107.1</v>
+        <v>107.0</v>
       </c>
       <c r="DL87" t="n" s="10">
         <v>116.5</v>
@@ -35472,7 +35472,7 @@
         <v>116.5</v>
       </c>
       <c r="DQ87" t="n" s="10">
-        <v>114.0</v>
+        <v>113.9</v>
       </c>
       <c r="DR87" t="n" s="10">
         <v>108.7</v>
@@ -35493,7 +35493,7 @@
         <v>116.3</v>
       </c>
       <c r="DX87" t="n" s="10">
-        <v>111.2</v>
+        <v>111.3</v>
       </c>
       <c r="DY87" t="n" s="10">
         <v>108.7</v>
@@ -35502,7 +35502,7 @@
         <v>108.0</v>
       </c>
       <c r="EA87" t="n" s="10">
-        <v>115.9</v>
+        <v>116.0</v>
       </c>
       <c r="EB87" t="n" s="10">
         <v>104.0</v>
@@ -35514,7 +35514,7 @@
         <v>108.6</v>
       </c>
       <c r="EE87" t="n" s="10">
-        <v>99.6</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="88">
@@ -36256,76 +36256,76 @@
         <v>117.2</v>
       </c>
       <c r="DH89" t="n" s="10">
-        <v>124.5</v>
+        <v>123.8</v>
       </c>
       <c r="DI89" t="n" s="10">
-        <v>110.0</v>
+        <v>109.3</v>
       </c>
       <c r="DJ89" t="n" s="10">
-        <v>116.1</v>
+        <v>115.5</v>
       </c>
       <c r="DK89" t="n" s="10">
-        <v>114.5</v>
+        <v>113.8</v>
       </c>
       <c r="DL89" t="n" s="10">
-        <v>108.8</v>
+        <v>107.7</v>
       </c>
       <c r="DM89" t="n" s="10">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="DN89" t="n" s="10">
-        <v>102.3</v>
+        <v>101.1</v>
       </c>
       <c r="DO89" t="n" s="10">
-        <v>104.6</v>
+        <v>103.4</v>
       </c>
       <c r="DP89" t="n" s="10">
-        <v>106.7</v>
+        <v>105.3</v>
       </c>
       <c r="DQ89" t="n" s="10">
-        <v>90.0</v>
+        <v>105.9</v>
       </c>
       <c r="DR89" t="n" s="10">
-        <v>100.8</v>
+        <v>99.5</v>
       </c>
       <c r="DS89" t="n" s="10">
-        <v>151.7</v>
+        <v>147.2</v>
       </c>
       <c r="DT89" t="n" s="10">
-        <v>100.9</v>
+        <v>99.7</v>
       </c>
       <c r="DU89" t="n" s="10">
-        <v>100.7</v>
+        <v>99.6</v>
       </c>
       <c r="DV89" t="n" s="10">
-        <v>95.2</v>
+        <v>94.1</v>
       </c>
       <c r="DW89" t="n" s="10">
-        <v>98.4</v>
+        <v>97.3</v>
       </c>
       <c r="DX89" t="n" s="10">
-        <v>107.5</v>
+        <v>106.2</v>
       </c>
       <c r="DY89" t="n" s="10">
         <v>147.1</v>
       </c>
       <c r="DZ89" t="n" s="10">
-        <v>104.8</v>
+        <v>103.5</v>
       </c>
       <c r="EA89" t="n" s="10">
-        <v>97.9</v>
+        <v>96.5</v>
       </c>
       <c r="EB89" t="n" s="10">
-        <v>99.3</v>
+        <v>97.8</v>
       </c>
       <c r="EC89" t="n" s="10">
-        <v>121.5</v>
+        <v>137.0</v>
       </c>
       <c r="ED89" t="n" s="10">
-        <v>104.8</v>
+        <v>103.0</v>
       </c>
       <c r="EE89" t="n" s="10">
-        <v>103.5</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="90">
@@ -37067,10 +37067,10 @@
         <v>95.3</v>
       </c>
       <c r="DH91" t="n" s="10">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="DI91" t="n" s="10">
-        <v>92.0</v>
+        <v>92.1</v>
       </c>
       <c r="DJ91" t="n" s="10">
         <v>94.8</v>
@@ -37082,13 +37082,13 @@
         <v>87.8</v>
       </c>
       <c r="DM91" t="n" s="10">
-        <v>86.2</v>
+        <v>86.1</v>
       </c>
       <c r="DN91" t="n" s="10">
-        <v>91.6</v>
+        <v>91.5</v>
       </c>
       <c r="DO91" t="n" s="10">
-        <v>87.7</v>
+        <v>87.6</v>
       </c>
       <c r="DP91" t="n" s="10">
         <v>90.4</v>
@@ -37100,7 +37100,7 @@
         <v>88.3</v>
       </c>
       <c r="DS91" t="n" s="10">
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="DT91" t="n" s="10">
         <v>86.2</v>
@@ -37127,7 +37127,7 @@
         <v>92.1</v>
       </c>
       <c r="EB91" t="n" s="10">
-        <v>87.0</v>
+        <v>86.9</v>
       </c>
       <c r="EC91" t="n" s="10">
         <v>87.5</v>
@@ -37471,13 +37471,13 @@
         <v>122.4</v>
       </c>
       <c r="DH92" t="n" s="10">
-        <v>121.2</v>
+        <v>121.1</v>
       </c>
       <c r="DI92" t="n" s="10">
-        <v>117.6</v>
+        <v>117.7</v>
       </c>
       <c r="DJ92" t="n" s="10">
-        <v>121.3</v>
+        <v>121.4</v>
       </c>
       <c r="DK92" t="n" s="10">
         <v>117.0</v>
@@ -37489,7 +37489,7 @@
         <v>109.6</v>
       </c>
       <c r="DN92" t="n" s="10">
-        <v>116.1</v>
+        <v>116.0</v>
       </c>
       <c r="DO92" t="n" s="10">
         <v>111.3</v>
@@ -37498,13 +37498,13 @@
         <v>115.0</v>
       </c>
       <c r="DQ92" t="n" s="10">
-        <v>115.4</v>
+        <v>115.3</v>
       </c>
       <c r="DR92" t="n" s="10">
         <v>111.8</v>
       </c>
       <c r="DS92" t="n" s="10">
-        <v>116.3</v>
+        <v>116.4</v>
       </c>
       <c r="DT92" t="n" s="10">
         <v>109.4</v>
@@ -37878,67 +37878,67 @@
         <v>86.8</v>
       </c>
       <c r="DH93" t="n" s="10">
-        <v>90.9</v>
+        <v>90.8</v>
       </c>
       <c r="DI93" t="n" s="10">
-        <v>87.1</v>
+        <v>87.3</v>
       </c>
       <c r="DJ93" t="n" s="10">
-        <v>90.1</v>
+        <v>90.3</v>
       </c>
       <c r="DK93" t="n" s="10">
-        <v>86.1</v>
+        <v>85.9</v>
       </c>
       <c r="DL93" t="n" s="10">
-        <v>79.4</v>
+        <v>79.6</v>
       </c>
       <c r="DM93" t="n" s="10">
         <v>81.9</v>
       </c>
       <c r="DN93" t="n" s="10">
-        <v>87.7</v>
+        <v>87.5</v>
       </c>
       <c r="DO93" t="n" s="10">
-        <v>81.5</v>
+        <v>81.4</v>
       </c>
       <c r="DP93" t="n" s="10">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="DQ93" t="n" s="10">
-        <v>82.6</v>
+        <v>82.4</v>
       </c>
       <c r="DR93" t="n" s="10">
         <v>84.7</v>
       </c>
       <c r="DS93" t="n" s="10">
-        <v>89.5</v>
+        <v>89.6</v>
       </c>
       <c r="DT93" t="n" s="10">
         <v>79.9</v>
       </c>
       <c r="DU93" t="n" s="10">
-        <v>81.5</v>
+        <v>81.4</v>
       </c>
       <c r="DV93" t="n" s="10">
         <v>84.4</v>
       </c>
       <c r="DW93" t="n" s="10">
-        <v>86.2</v>
+        <v>86.0</v>
       </c>
       <c r="DX93" t="n" s="10">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
       <c r="DY93" t="n" s="10">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="DZ93" t="n" s="10">
         <v>84.6</v>
       </c>
       <c r="EA93" t="n" s="10">
-        <v>88.7</v>
+        <v>88.8</v>
       </c>
       <c r="EB93" t="n" s="10">
-        <v>84.8</v>
+        <v>84.6</v>
       </c>
       <c r="EC93" t="n" s="10">
         <v>86.3</v>
@@ -37947,7 +37947,7 @@
         <v>82.6</v>
       </c>
       <c r="EE93" t="n" s="10">
-        <v>83.8</v>
+        <v>83.6</v>
       </c>
     </row>
     <row r="94">
@@ -38282,40 +38282,40 @@
         <v>114.3</v>
       </c>
       <c r="DH94" t="n" s="10">
-        <v>118.0</v>
+        <v>117.8</v>
       </c>
       <c r="DI94" t="n" s="10">
-        <v>113.6</v>
+        <v>113.8</v>
       </c>
       <c r="DJ94" t="n" s="10">
-        <v>118.0</v>
+        <v>118.1</v>
       </c>
       <c r="DK94" t="n" s="10">
-        <v>111.9</v>
+        <v>111.7</v>
       </c>
       <c r="DL94" t="n" s="10">
-        <v>103.6</v>
+        <v>103.7</v>
       </c>
       <c r="DM94" t="n" s="10">
         <v>106.3</v>
       </c>
       <c r="DN94" t="n" s="10">
-        <v>113.3</v>
+        <v>113.1</v>
       </c>
       <c r="DO94" t="n" s="10">
         <v>105.0</v>
       </c>
       <c r="DP94" t="n" s="10">
-        <v>110.0</v>
+        <v>110.1</v>
       </c>
       <c r="DQ94" t="n" s="10">
-        <v>106.0</v>
+        <v>105.9</v>
       </c>
       <c r="DR94" t="n" s="10">
         <v>108.6</v>
       </c>
       <c r="DS94" t="n" s="10">
-        <v>115.0</v>
+        <v>115.1</v>
       </c>
       <c r="DT94" t="n" s="10">
         <v>102.6</v>
@@ -38327,31 +38327,31 @@
         <v>108.2</v>
       </c>
       <c r="DW94" t="n" s="10">
-        <v>110.0</v>
+        <v>109.9</v>
       </c>
       <c r="DX94" t="n" s="10">
-        <v>114.9</v>
+        <v>115.0</v>
       </c>
       <c r="DY94" t="n" s="10">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="DZ94" t="n" s="10">
-        <v>108.5</v>
+        <v>108.4</v>
       </c>
       <c r="EA94" t="n" s="10">
         <v>114.0</v>
       </c>
       <c r="EB94" t="n" s="10">
-        <v>108.5</v>
+        <v>108.3</v>
       </c>
       <c r="EC94" t="n" s="10">
-        <v>110.8</v>
+        <v>110.9</v>
       </c>
       <c r="ED94" t="n" s="10">
         <v>106.3</v>
       </c>
       <c r="EE94" t="n" s="10">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
     </row>
     <row r="95">
@@ -38695,13 +38695,13 @@
         <v>94.8</v>
       </c>
       <c r="DJ95" t="n" s="10">
-        <v>97.4</v>
+        <v>97.3</v>
       </c>
       <c r="DK95" t="n" s="10">
-        <v>95.5</v>
+        <v>95.6</v>
       </c>
       <c r="DL95" t="n" s="10">
-        <v>92.6</v>
+        <v>92.5</v>
       </c>
       <c r="DM95" t="n" s="10">
         <v>88.6</v>
@@ -38716,13 +38716,13 @@
         <v>93.4</v>
       </c>
       <c r="DQ95" t="n" s="10">
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="DR95" t="n" s="10">
         <v>90.4</v>
       </c>
       <c r="DS95" t="n" s="10">
-        <v>92.9</v>
+        <v>92.8</v>
       </c>
       <c r="DT95" t="n" s="10">
         <v>89.8</v>
@@ -38734,22 +38734,22 @@
         <v>88.9</v>
       </c>
       <c r="DW95" t="n" s="10">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="DX95" t="n" s="10">
         <v>95.9</v>
       </c>
       <c r="DY95" t="n" s="10">
-        <v>96.0</v>
+        <v>96.1</v>
       </c>
       <c r="DZ95" t="n" s="10">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="EA95" t="n" s="10">
         <v>93.9</v>
       </c>
       <c r="EB95" t="n" s="10">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="EC95" t="n" s="10">
         <v>88.1</v>
@@ -39500,40 +39500,40 @@
         <v>83.5</v>
       </c>
       <c r="DH97" t="n" s="10">
-        <v>87.2</v>
+        <v>87.4</v>
       </c>
       <c r="DI97" t="n" s="10">
-        <v>90.9</v>
+        <v>90.8</v>
       </c>
       <c r="DJ97" t="n" s="10">
-        <v>83.0</v>
+        <v>82.9</v>
       </c>
       <c r="DK97" t="n" s="10">
-        <v>79.0</v>
+        <v>79.2</v>
       </c>
       <c r="DL97" t="n" s="10">
-        <v>75.7</v>
+        <v>75.5</v>
       </c>
       <c r="DM97" t="n" s="10">
         <v>71.3</v>
       </c>
       <c r="DN97" t="n" s="10">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="DO97" t="n" s="10">
         <v>77.1</v>
       </c>
       <c r="DP97" t="n" s="10">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="DQ97" t="n" s="10">
-        <v>74.4</v>
+        <v>74.5</v>
       </c>
       <c r="DR97" t="n" s="10">
         <v>73.3</v>
       </c>
       <c r="DS97" t="n" s="10">
-        <v>79.4</v>
+        <v>79.3</v>
       </c>
       <c r="DT97" t="n" s="10">
         <v>74.0</v>
@@ -39542,25 +39542,25 @@
         <v>70.7</v>
       </c>
       <c r="DV97" t="n" s="10">
-        <v>74.9</v>
+        <v>74.8</v>
       </c>
       <c r="DW97" t="n" s="10">
-        <v>69.5</v>
+        <v>69.6</v>
       </c>
       <c r="DX97" t="n" s="10">
         <v>79.3</v>
       </c>
       <c r="DY97" t="n" s="10">
-        <v>80.3</v>
+        <v>80.4</v>
       </c>
       <c r="DZ97" t="n" s="10">
         <v>74.4</v>
       </c>
       <c r="EA97" t="n" s="10">
-        <v>74.7</v>
+        <v>74.6</v>
       </c>
       <c r="EB97" t="n" s="10">
-        <v>74.4</v>
+        <v>74.5</v>
       </c>
       <c r="EC97" t="n" s="10">
         <v>74.8</v>
@@ -39569,7 +39569,7 @@
         <v>78.0</v>
       </c>
       <c r="EE97" t="n" s="10">
-        <v>74.1</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="98">
@@ -40311,40 +40311,40 @@
         <v>121.8</v>
       </c>
       <c r="DH99" t="n" s="10">
-        <v>111.1</v>
+        <v>110.9</v>
       </c>
       <c r="DI99" t="n" s="10">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="DJ99" t="n" s="10">
-        <v>116.7</v>
+        <v>116.9</v>
       </c>
       <c r="DK99" t="n" s="10">
-        <v>116.8</v>
+        <v>116.6</v>
       </c>
       <c r="DL99" t="n" s="10">
-        <v>115.1</v>
+        <v>115.3</v>
       </c>
       <c r="DM99" t="n" s="10">
         <v>111.2</v>
       </c>
       <c r="DN99" t="n" s="10">
-        <v>114.7</v>
+        <v>114.5</v>
       </c>
       <c r="DO99" t="n" s="10">
         <v>109.9</v>
       </c>
       <c r="DP99" t="n" s="10">
-        <v>114.8</v>
+        <v>114.9</v>
       </c>
       <c r="DQ99" t="n" s="10">
-        <v>124.4</v>
+        <v>124.2</v>
       </c>
       <c r="DR99" t="n" s="10">
         <v>113.0</v>
       </c>
       <c r="DS99" t="n" s="10">
-        <v>110.8</v>
+        <v>110.9</v>
       </c>
       <c r="DT99" t="n" s="10">
         <v>110.8</v>
@@ -40356,13 +40356,13 @@
         <v>107.6</v>
       </c>
       <c r="DW99" t="n" s="10">
-        <v>112.7</v>
+        <v>112.5</v>
       </c>
       <c r="DX99" t="n" s="10">
-        <v>118.0</v>
+        <v>118.1</v>
       </c>
       <c r="DY99" t="n" s="10">
-        <v>116.7</v>
+        <v>116.6</v>
       </c>
       <c r="DZ99" t="n" s="10">
         <v>112.2</v>
@@ -40371,7 +40371,7 @@
         <v>119.5</v>
       </c>
       <c r="EB99" t="n" s="10">
-        <v>106.2</v>
+        <v>106.0</v>
       </c>
       <c r="EC99" t="n" s="10">
         <v>105.8</v>
@@ -40380,7 +40380,7 @@
         <v>115.0</v>
       </c>
       <c r="EE99" t="n" s="10">
-        <v>116.2</v>
+        <v>116.0</v>
       </c>
     </row>
     <row r="100">
@@ -41157,7 +41157,7 @@
         <v>97.5</v>
       </c>
       <c r="DR102" t="n" s="10">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="DS102" t="n" s="10">
         <v>96.9</v>
@@ -41193,7 +41193,7 @@
         <v>93.4</v>
       </c>
       <c r="ED102" t="n" s="10">
-        <v>92.9</v>
+        <v>92.8</v>
       </c>
       <c r="EE102" t="n" s="10">
         <v>92.2</v>
@@ -41531,34 +41531,34 @@
         <v>132.1</v>
       </c>
       <c r="DH103" t="n" s="10">
-        <v>129.8</v>
+        <v>127.9</v>
       </c>
       <c r="DI103" t="n" s="10">
-        <v>128.9</v>
+        <v>127.3</v>
       </c>
       <c r="DJ103" t="n" s="10">
-        <v>127.9</v>
+        <v>126.4</v>
       </c>
       <c r="DK103" t="n" s="10">
-        <v>126.6</v>
+        <v>125.3</v>
       </c>
       <c r="DL103" t="n" s="10">
-        <v>125.4</v>
+        <v>124.3</v>
       </c>
       <c r="DM103" t="n" s="10">
-        <v>124.3</v>
+        <v>123.4</v>
       </c>
       <c r="DN103" t="n" s="10">
-        <v>123.5</v>
+        <v>122.9</v>
       </c>
       <c r="DO103" t="n" s="10">
-        <v>123.2</v>
+        <v>122.8</v>
       </c>
       <c r="DP103" t="n" s="10">
-        <v>122.7</v>
+        <v>122.4</v>
       </c>
       <c r="DQ103" t="n" s="10">
-        <v>122.2</v>
+        <v>122.1</v>
       </c>
       <c r="DR103" t="n" s="10">
         <v>121.8</v>
@@ -41567,22 +41567,22 @@
         <v>121.5</v>
       </c>
       <c r="DT103" t="n" s="10">
-        <v>121.2</v>
+        <v>121.3</v>
       </c>
       <c r="DU103" t="n" s="10">
-        <v>121.0</v>
+        <v>121.1</v>
       </c>
       <c r="DV103" t="n" s="10">
-        <v>120.6</v>
+        <v>120.8</v>
       </c>
       <c r="DW103" t="n" s="10">
-        <v>120.4</v>
+        <v>120.5</v>
       </c>
       <c r="DX103" t="n" s="10">
-        <v>120.4</v>
+        <v>120.3</v>
       </c>
       <c r="DY103" t="n" s="10">
-        <v>120.1</v>
+        <v>120.0</v>
       </c>
       <c r="DZ103" t="n" s="10">
         <v>119.7</v>
@@ -41591,13 +41591,13 @@
         <v>119.1</v>
       </c>
       <c r="EB103" t="n" s="10">
-        <v>118.6</v>
+        <v>118.5</v>
       </c>
       <c r="EC103" t="n" s="10">
         <v>117.9</v>
       </c>
       <c r="ED103" t="n" s="10">
-        <v>117.3</v>
+        <v>117.2</v>
       </c>
       <c r="EE103" t="n" s="10">
         <v>116.5</v>
@@ -41956,13 +41956,13 @@
         <v>107.5</v>
       </c>
       <c r="DN104" t="n" s="10">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
       <c r="DO104" t="n" s="10">
         <v>106.3</v>
       </c>
       <c r="DP104" t="n" s="10">
-        <v>105.6</v>
+        <v>105.5</v>
       </c>
       <c r="DQ104" t="n" s="10">
         <v>104.9</v>
@@ -41992,7 +41992,7 @@
         <v>100.2</v>
       </c>
       <c r="DZ104" t="n" s="10">
-        <v>99.5</v>
+        <v>99.4</v>
       </c>
       <c r="EA104" t="n" s="10">
         <v>98.5</v>
@@ -42342,7 +42342,7 @@
         <v>140.8</v>
       </c>
       <c r="DH105" t="n" s="10">
-        <v>138.7</v>
+        <v>139.1</v>
       </c>
       <c r="DI105" t="n" s="10">
         <v>137.9</v>
@@ -42363,55 +42363,55 @@
         <v>132.3</v>
       </c>
       <c r="DO105" t="n" s="10">
-        <v>131.8</v>
+        <v>131.5</v>
       </c>
       <c r="DP105" t="n" s="10">
-        <v>131.0</v>
+        <v>130.8</v>
       </c>
       <c r="DQ105" t="n" s="10">
-        <v>130.3</v>
+        <v>130.2</v>
       </c>
       <c r="DR105" t="n" s="10">
         <v>129.6</v>
       </c>
       <c r="DS105" t="n" s="10">
-        <v>129.0</v>
+        <v>129.1</v>
       </c>
       <c r="DT105" t="n" s="10">
-        <v>128.4</v>
+        <v>128.6</v>
       </c>
       <c r="DU105" t="n" s="10">
-        <v>127.7</v>
+        <v>128.0</v>
       </c>
       <c r="DV105" t="n" s="10">
-        <v>127.0</v>
+        <v>127.4</v>
       </c>
       <c r="DW105" t="n" s="10">
-        <v>126.5</v>
+        <v>126.9</v>
       </c>
       <c r="DX105" t="n" s="10">
-        <v>126.0</v>
+        <v>126.3</v>
       </c>
       <c r="DY105" t="n" s="10">
         <v>125.3</v>
       </c>
       <c r="DZ105" t="n" s="10">
-        <v>124.4</v>
+        <v>124.2</v>
       </c>
       <c r="EA105" t="n" s="10">
-        <v>123.4</v>
+        <v>122.7</v>
       </c>
       <c r="EB105" t="n" s="10">
-        <v>122.3</v>
+        <v>121.2</v>
       </c>
       <c r="EC105" t="n" s="10">
-        <v>121.0</v>
+        <v>119.5</v>
       </c>
       <c r="ED105" t="n" s="10">
-        <v>119.6</v>
+        <v>117.7</v>
       </c>
       <c r="EE105" t="n" s="10">
-        <v>118.0</v>
+        <v>115.8</v>
       </c>
     </row>
     <row r="106">
@@ -42785,7 +42785,7 @@
         <v>93.8</v>
       </c>
       <c r="DT106" t="n" s="10">
-        <v>92.4</v>
+        <v>92.3</v>
       </c>
       <c r="DU106" t="n" s="10">
         <v>90.9</v>
@@ -42815,10 +42815,10 @@
         <v>80.3</v>
       </c>
       <c r="ED106" t="n" s="10">
-        <v>78.7</v>
+        <v>78.6</v>
       </c>
       <c r="EE106" t="n" s="10">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="107">
@@ -44021,13 +44021,13 @@
         <v>137.8</v>
       </c>
       <c r="EA109" t="n" s="10">
-        <v>136.5</v>
+        <v>136.4</v>
       </c>
       <c r="EB109" t="n" s="10">
-        <v>135.0</v>
+        <v>134.9</v>
       </c>
       <c r="EC109" t="n" s="10">
-        <v>133.4</v>
+        <v>133.3</v>
       </c>
       <c r="ED109" t="n" s="10">
         <v>131.6</v>
@@ -44398,7 +44398,7 @@
         <v>111.6</v>
       </c>
       <c r="DQ110" t="n" s="10">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="DR110" t="n" s="10">
         <v>111.8</v>
@@ -44416,7 +44416,7 @@
         <v>111.5</v>
       </c>
       <c r="DW110" t="n" s="10">
-        <v>111.5</v>
+        <v>111.4</v>
       </c>
       <c r="DX110" t="n" s="10">
         <v>111.0</v>
@@ -44431,7 +44431,7 @@
         <v>108.3</v>
       </c>
       <c r="EB110" t="n" s="10">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="EC110" t="n" s="10">
         <v>105.3</v>
@@ -45182,76 +45182,76 @@
         <v>119.3</v>
       </c>
       <c r="DH112" t="n" s="10">
-        <v>117.8</v>
+        <v>117.0</v>
       </c>
       <c r="DI112" t="n" s="10">
-        <v>115.4</v>
+        <v>115.1</v>
       </c>
       <c r="DJ112" t="n" s="10">
-        <v>112.8</v>
+        <v>113.0</v>
       </c>
       <c r="DK112" t="n" s="10">
-        <v>110.3</v>
+        <v>110.6</v>
       </c>
       <c r="DL112" t="n" s="10">
-        <v>107.9</v>
+        <v>108.3</v>
       </c>
       <c r="DM112" t="n" s="10">
-        <v>105.6</v>
+        <v>106.1</v>
       </c>
       <c r="DN112" t="n" s="10">
+        <v>104.5</v>
+      </c>
+      <c r="DO112" t="n" s="10">
         <v>103.4</v>
       </c>
-      <c r="DO112" t="n" s="10">
-        <v>101.9</v>
-      </c>
       <c r="DP112" t="n" s="10">
+        <v>102.2</v>
+      </c>
+      <c r="DQ112" t="n" s="10">
+        <v>101.2</v>
+      </c>
+      <c r="DR112" t="n" s="10">
         <v>100.5</v>
       </c>
-      <c r="DQ112" t="n" s="10">
-        <v>99.6</v>
-      </c>
-      <c r="DR112" t="n" s="10">
-        <v>99.2</v>
-      </c>
       <c r="DS112" t="n" s="10">
-        <v>99.1</v>
+        <v>100.0</v>
       </c>
       <c r="DT112" t="n" s="10">
-        <v>99.2</v>
+        <v>99.7</v>
       </c>
       <c r="DU112" t="n" s="10">
         <v>99.5</v>
       </c>
       <c r="DV112" t="n" s="10">
-        <v>99.9</v>
+        <v>99.4</v>
       </c>
       <c r="DW112" t="n" s="10">
-        <v>100.7</v>
+        <v>99.5</v>
       </c>
       <c r="DX112" t="n" s="10">
+        <v>99.8</v>
+      </c>
+      <c r="DY112" t="n" s="10">
+        <v>100.2</v>
+      </c>
+      <c r="DZ112" t="n" s="10">
+        <v>100.4</v>
+      </c>
+      <c r="EA112" t="n" s="10">
+        <v>100.6</v>
+      </c>
+      <c r="EB112" t="n" s="10">
+        <v>101.1</v>
+      </c>
+      <c r="EC112" t="n" s="10">
         <v>101.7</v>
       </c>
-      <c r="DY112" t="n" s="10">
-        <v>102.8</v>
-      </c>
-      <c r="DZ112" t="n" s="10">
-        <v>103.5</v>
-      </c>
-      <c r="EA112" t="n" s="10">
-        <v>104.1</v>
-      </c>
-      <c r="EB112" t="n" s="10">
-        <v>105.1</v>
-      </c>
-      <c r="EC112" t="n" s="10">
-        <v>105.9</v>
-      </c>
       <c r="ED112" t="n" s="10">
-        <v>106.1</v>
+        <v>102.1</v>
       </c>
       <c r="EE112" t="n" s="10">
-        <v>105.9</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="113">
@@ -46014,7 +46014,7 @@
         <v>89.2</v>
       </c>
       <c r="DO114" t="n" s="10">
-        <v>89.2</v>
+        <v>89.1</v>
       </c>
       <c r="DP114" t="n" s="10">
         <v>89.0</v>
@@ -46053,7 +46053,7 @@
         <v>89.9</v>
       </c>
       <c r="EB114" t="n" s="10">
-        <v>90.0</v>
+        <v>89.9</v>
       </c>
       <c r="EC114" t="n" s="10">
         <v>90.0</v>
@@ -46397,7 +46397,7 @@
         <v>120.8</v>
       </c>
       <c r="DH115" t="n" s="10">
-        <v>119.4</v>
+        <v>119.3</v>
       </c>
       <c r="DI115" t="n" s="10">
         <v>118.5</v>
@@ -46406,10 +46406,10 @@
         <v>117.5</v>
       </c>
       <c r="DK115" t="n" s="10">
-        <v>116.3</v>
+        <v>116.2</v>
       </c>
       <c r="DL115" t="n" s="10">
-        <v>115.1</v>
+        <v>115.0</v>
       </c>
       <c r="DM115" t="n" s="10">
         <v>114.0</v>
@@ -46460,7 +46460,7 @@
         <v>114.3</v>
       </c>
       <c r="EC115" t="n" s="10">
-        <v>114.4</v>
+        <v>114.3</v>
       </c>
       <c r="ED115" t="n" s="10">
         <v>114.6</v>
@@ -46810,7 +46810,7 @@
         <v>88.1</v>
       </c>
       <c r="DJ116" t="n" s="10">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="DK116" t="n" s="10">
         <v>85.9</v>
@@ -46852,7 +46852,7 @@
         <v>85.3</v>
       </c>
       <c r="DX116" t="n" s="10">
-        <v>85.7</v>
+        <v>85.6</v>
       </c>
       <c r="DY116" t="n" s="10">
         <v>85.8</v>
@@ -46864,13 +46864,13 @@
         <v>86.0</v>
       </c>
       <c r="EB116" t="n" s="10">
-        <v>86.1</v>
+        <v>86.0</v>
       </c>
       <c r="EC116" t="n" s="10">
         <v>85.9</v>
       </c>
       <c r="ED116" t="n" s="10">
-        <v>85.9</v>
+        <v>85.8</v>
       </c>
       <c r="EE116" t="n" s="10">
         <v>85.7</v>
@@ -47229,13 +47229,13 @@
         <v>108.0</v>
       </c>
       <c r="DO117" t="n" s="10">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="DP117" t="n" s="10">
         <v>107.6</v>
       </c>
       <c r="DQ117" t="n" s="10">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
       <c r="DR117" t="n" s="10">
         <v>107.6</v>
@@ -47244,7 +47244,7 @@
         <v>107.8</v>
       </c>
       <c r="DT117" t="n" s="10">
-        <v>108.1</v>
+        <v>108.0</v>
       </c>
       <c r="DU117" t="n" s="10">
         <v>108.5</v>
@@ -47253,7 +47253,7 @@
         <v>108.9</v>
       </c>
       <c r="DW117" t="n" s="10">
-        <v>109.4</v>
+        <v>109.3</v>
       </c>
       <c r="DX117" t="n" s="10">
         <v>109.8</v>
@@ -47262,7 +47262,7 @@
         <v>110.0</v>
       </c>
       <c r="DZ117" t="n" s="10">
-        <v>110.2</v>
+        <v>110.1</v>
       </c>
       <c r="EA117" t="n" s="10">
         <v>110.3</v>
@@ -47636,7 +47636,7 @@
         <v>92.5</v>
       </c>
       <c r="DO118" t="n" s="10">
-        <v>92.4</v>
+        <v>92.5</v>
       </c>
       <c r="DP118" t="n" s="10">
         <v>92.2</v>
@@ -48079,7 +48079,7 @@
         <v>116.5</v>
       </c>
       <c r="EB119" t="n" s="10">
-        <v>116.6</v>
+        <v>116.5</v>
       </c>
       <c r="EC119" t="n" s="10">
         <v>116.8</v>
@@ -48468,7 +48468,7 @@
         <v>74.2</v>
       </c>
       <c r="DV120" t="n" s="10">
-        <v>74.2</v>
+        <v>74.3</v>
       </c>
       <c r="DW120" t="n" s="10">
         <v>74.5</v>
@@ -48480,22 +48480,22 @@
         <v>75.2</v>
       </c>
       <c r="DZ120" t="n" s="10">
-        <v>75.5</v>
+        <v>75.6</v>
       </c>
       <c r="EA120" t="n" s="10">
         <v>76.0</v>
       </c>
       <c r="EB120" t="n" s="10">
-        <v>76.5</v>
+        <v>76.6</v>
       </c>
       <c r="EC120" t="n" s="10">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="ED120" t="n" s="10">
-        <v>77.9</v>
+        <v>78.0</v>
       </c>
       <c r="EE120" t="n" s="10">
-        <v>78.8</v>
+        <v>78.9</v>
       </c>
     </row>
     <row r="121">
@@ -49258,10 +49258,10 @@
         <v>114.6</v>
       </c>
       <c r="DO122" t="n" s="10">
-        <v>115.0</v>
+        <v>114.9</v>
       </c>
       <c r="DP122" t="n" s="10">
-        <v>115.2</v>
+        <v>115.1</v>
       </c>
       <c r="DQ122" t="n" s="10">
         <v>115.4</v>
@@ -49276,7 +49276,7 @@
         <v>115.4</v>
       </c>
       <c r="DU122" t="n" s="10">
-        <v>115.3</v>
+        <v>115.2</v>
       </c>
       <c r="DV122" t="n" s="10">
         <v>115.0</v>
@@ -49303,10 +49303,10 @@
         <v>112.1</v>
       </c>
       <c r="ED122" t="n" s="10">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="EE122" t="n" s="10">
-        <v>111.4</v>
+        <v>111.3</v>
       </c>
     </row>
     <row r="123">
@@ -49762,7 +49762,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 10:59:02&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:35:48&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>